--- a/biology/Médecine/Muscle_stylo-pharyngien/Muscle_stylo-pharyngien.xlsx
+++ b/biology/Médecine/Muscle_stylo-pharyngien/Muscle_stylo-pharyngien.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le muscle stylo-pharyngien (ou muscle dilatateur du pharynx ou muscle stylo-pharyngo-laryngien)est un muscle du cou. Il s'insère sur l'apophyse styloïde de l'os temporal en haut, suit un trajet vertical puis s'insère dans la muqueuse pharyngienne en bas. Il est sous le contrôle du nerf glossopharyngien (IX) et effectue l'ascension du pharynx lors de sa contraction.
 </t>
